--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_19-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_19-17.xlsx
@@ -53,6 +53,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     <t>CLARY HAIR MASK</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -110,9 +119,6 @@
     <t>8:1</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
   </si>
   <si>
     <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>PROCYKINOL 5MG 50 TAB SACHET</t>
   </si>
   <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -1066,17 +1081,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1084,7 +1099,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1092,13 +1107,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>30.5</v>
+        <v>24</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -1110,7 +1125,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1118,17 +1133,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>-33</v>
+        <v>30.5</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1150,11 +1165,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>31</v>
+        <v>-33</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1170,13 +1185,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1188,7 +1203,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1196,13 +1211,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>69</v>
+        <v>360</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1222,17 +1237,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1240,7 +1255,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1248,17 +1263,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1274,13 +1289,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1292,7 +1307,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1300,17 +1315,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>82.5</v>
+        <v>36</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1326,13 +1341,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1344,7 +1359,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1352,17 +1367,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>24</v>
+        <v>82.5</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1370,7 +1385,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1378,17 +1393,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1396,7 +1411,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1404,17 +1419,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1422,7 +1437,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1430,13 +1445,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1448,7 +1463,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1456,13 +1471,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1474,7 +1489,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1482,17 +1497,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1514,7 +1529,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1534,13 +1549,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1560,17 +1575,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,7 +1593,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1586,13 +1601,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1604,7 +1619,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1612,7 +1627,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1622,7 +1637,7 @@
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1630,7 +1645,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1644,7 +1659,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1656,7 +1671,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1664,17 +1679,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1690,13 +1705,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1708,7 +1723,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1716,17 +1731,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1734,7 +1749,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1742,17 +1757,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>71.5</v>
+        <v>24</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1760,7 +1775,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1768,17 +1783,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1794,17 +1809,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>57</v>
+        <v>71.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1820,13 +1835,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1846,17 +1861,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1872,13 +1887,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1898,17 +1913,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1916,7 +1931,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1930,11 +1945,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1942,7 +1957,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1956,7 +1971,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1968,7 +1983,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1976,17 +1991,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>-72.5</v>
+        <v>39</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2002,13 +2017,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2034,7 +2049,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>36.5</v>
+        <v>100</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2054,17 +2069,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>57</v>
+        <v>-72.5</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2080,13 +2095,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2112,11 +2127,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>46</v>
+        <v>36.5</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2132,17 +2147,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2150,7 +2165,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2158,17 +2173,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2176,7 +2191,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2184,17 +2199,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2202,7 +2217,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2210,13 +2225,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2228,7 +2243,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2236,17 +2251,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2262,13 +2277,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2288,17 +2303,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2314,17 +2329,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2340,17 +2355,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2366,17 +2381,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2392,13 +2407,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>28.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2410,7 +2425,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2418,17 +2433,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2436,7 +2451,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2444,17 +2459,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2462,7 +2477,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2476,7 +2491,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2488,7 +2503,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2502,7 +2517,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2514,7 +2529,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2522,17 +2537,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>62</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2548,17 +2563,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2574,17 +2589,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2600,17 +2615,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2618,7 +2633,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2626,17 +2641,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2644,7 +2659,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2652,17 +2667,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2670,7 +2685,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2678,17 +2693,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2696,7 +2711,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2704,17 +2719,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2722,7 +2737,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2730,17 +2745,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2748,7 +2763,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2756,17 +2771,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2774,7 +2789,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2782,17 +2797,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2800,7 +2815,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2808,13 +2823,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2826,7 +2841,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2834,13 +2849,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2852,7 +2867,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2860,17 +2875,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>11.67</v>
+        <v>25</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2878,7 +2893,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2886,13 +2901,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2904,7 +2919,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2912,17 +2927,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2930,7 +2945,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2938,17 +2953,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2956,7 +2971,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2964,13 +2979,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2982,7 +2997,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2990,17 +3005,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>20</v>
+        <v>11.67</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3008,7 +3023,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3016,17 +3031,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>133.65000000000001</v>
+        <v>45</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3034,7 +3049,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3042,17 +3057,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3060,7 +3075,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3068,17 +3083,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3086,7 +3101,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3094,17 +3109,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3120,13 +3135,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3146,17 +3161,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3172,13 +3187,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3198,17 +3213,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3224,51 +3239,181 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="K91" s="10">
-        <v>4286.0200000000004</v>
-      </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" s="6">
+        <v>88</v>
+      </c>
+      <c t="s" r="B91" s="7">
+        <v>128</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c t="s" r="H91" s="8">
+        <v>9</v>
+      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="9">
+        <v>10</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c t="s" r="N91" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>89</v>
+      </c>
+      <c t="s" r="B92" s="7">
         <v>129</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c t="s" r="F92" s="12">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c t="s" r="H92" s="8">
+        <v>122</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9">
+        <v>20</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c t="s" r="N92" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" ht="25.5" customHeight="1">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
         <v>130</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c t="s" r="I92" s="14">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
+        <v>33</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>20</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c t="s" r="N93" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="24.75" customHeight="1">
+      <c r="A94" s="6">
+        <v>91</v>
+      </c>
+      <c t="s" r="B94" s="7">
         <v>131</v>
       </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c t="s" r="H94" s="8">
+        <v>38</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9">
+        <v>80</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c t="s" r="N94" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" ht="25.5" customHeight="1">
+      <c r="A95" s="6">
+        <v>92</v>
+      </c>
+      <c t="s" r="B95" s="7">
+        <v>132</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c t="s" r="H95" s="8">
+        <v>133</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="9">
+        <v>20</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c t="s" r="N95" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="K96" s="10">
+        <v>4576.0200000000004</v>
+      </c>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="11">
+        <v>134</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c t="s" r="F97" s="12">
+        <v>135</v>
+      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13"/>
+      <c t="s" r="I97" s="14">
+        <v>136</v>
+      </c>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3537,10 +3682,25 @@
     <mergeCell ref="B90:G90"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="I92:N92"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="K96:N96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="I97:N97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
